--- a/Trading-Journal.xlsx
+++ b/Trading-Journal.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://e2open-my.sharepoint.com/personal/biken_nepal_e2open_com/Documents/Desktop/premilafolder/Trading analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104860191B7B445BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AAA931A-D03C-4530-A8B1-2E6D3B819453}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="13_ncr:1_{4D34D654-83D9-4CCB-B394-20266BCAED5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05412B7E-B491-49A7-98F4-FE8C0437983E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day_Trade" sheetId="1" r:id="rId1"/>
-    <sheet name="ever_usefeul_Word" sheetId="3" r:id="rId2"/>
-    <sheet name="pre-market_analysis" sheetId="2" r:id="rId3"/>
-    <sheet name="post-Market" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="ever_usefeul_Word" sheetId="3" r:id="rId3"/>
+    <sheet name="pre-market_analysis" sheetId="2" r:id="rId4"/>
+    <sheet name="post-Market" sheetId="4" r:id="rId5"/>
+    <sheet name="crypto" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="261">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +112,708 @@
   </si>
   <si>
     <t>likely as per my analysis but I was wrong</t>
+  </si>
+  <si>
+    <t>was a calculated trade but market took my SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market did open flat and came for support and move up a bit </t>
+  </si>
+  <si>
+    <t>if flat opening observer how many time it will come to take SPP</t>
+  </si>
+  <si>
+    <t>gift nifty was minus so market may come down later so observe</t>
+  </si>
+  <si>
+    <t>13/6/2025</t>
+  </si>
+  <si>
+    <t>first trade gave 1:2 RR but I have taken second risk so again loss no worry</t>
+  </si>
+  <si>
+    <t>market open big gap down and this time market was up to sideways</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>wait for directional move and trade accordingly</t>
+  </si>
+  <si>
+    <t>if you are giving a SL then wait for 1:3 RR that very important</t>
+  </si>
+  <si>
+    <t>No trade but as per my setup it worked correctly</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>as per my setup I did scalping and it gave me 25 points</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>I traded using my trendline and it perfectly worked</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>No trade as market was sideways</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>as per my trendline and setup market move so much but I missed my trade</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>I missed perfect trade and waited for second trade it hit my SL</t>
+  </si>
+  <si>
+    <t>23/6/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review </t>
+  </si>
+  <si>
+    <t>market moved so well on Monday and I am observing the patterns</t>
+  </si>
+  <si>
+    <t>always observer the candle and it's OI as well</t>
+  </si>
+  <si>
+    <t>24/6/2025</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>I waited for my entry but still market didn't move</t>
+  </si>
+  <si>
+    <t>avoid trading in expiry day as it's dangerous</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>No trade but there was a scalping trade as per my setup</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>there was a perfect trade as per my setup and my setup works perfectly</t>
+  </si>
+  <si>
+    <t>market moved so well on Thursday and if I would have traded I would have made good one</t>
+  </si>
+  <si>
+    <t>no move at all so avoided trade</t>
+  </si>
+  <si>
+    <t>there was a move on sensex expiry</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>Market didn't move at all and my mistake was I tradeded below my terndline so book loss</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>market moved so well but after my trade</t>
+  </si>
+  <si>
+    <t>I followed my setup but it tool sl and moved later</t>
+  </si>
+  <si>
+    <t>market open abit higher to yesterday closing and came to closing point and went up</t>
+  </si>
+  <si>
+    <t>As per my analysis I made correct based on market opening</t>
+  </si>
+  <si>
+    <t>see the opening price of market at 9:08 am</t>
+  </si>
+  <si>
+    <t>biggest mistake I made again don't ever rush to move your SL colser let trade develop and move your SL as my trade went 100 point but I missed due to fast movement of SL</t>
+  </si>
+  <si>
+    <t>never ever be In hurry to move SL as I missed 100 point today</t>
+  </si>
+  <si>
+    <t>No trade and market didn't move as well</t>
+  </si>
+  <si>
+    <t>Took my one SL and in second trade it gave 1:10 RR but I missed due to silly and early SL trailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I missed two perfect trade as per 15min candle stick pattern </t>
+  </si>
+  <si>
+    <t>I missed again one perfect trade due to my work schedule later took risk with smal sl</t>
+  </si>
+  <si>
+    <t>I booked loss because of groww update setting as I didn't check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No market movement today </t>
+  </si>
+  <si>
+    <t>market did moved after 3 pm so I booked 1:3 RR but I still need to have patience to stay longer</t>
+  </si>
+  <si>
+    <t>I booked 1:3 RR but I have to develop patience to hold longer if want to earn money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Red flag on this part </t>
+  </si>
+  <si>
+    <t>I still have to stay patience in market while in profit as I again missed 100 + point</t>
+  </si>
+  <si>
+    <t>my trade was perfect but I made bit late entry so booked loss or else made 1200 plus in this trade</t>
+  </si>
+  <si>
+    <t>my trade was ok as per closing but I have to wait for full body candle closing  and don't forget to mark you entry number as I missed today to place SL as per entry series</t>
+  </si>
+  <si>
+    <t>trade only once but don't move your SL as I learn today that because of my early movement of SL I  booked three SL</t>
+  </si>
+  <si>
+    <t>again I missed 100 point as I moved mY SL too Early so do 1 trade but stick to plan</t>
+  </si>
+  <si>
+    <t>15/7/2025</t>
+  </si>
+  <si>
+    <t>I traded as per my candle pattern but booked loss note the point as I took risk but candle was not as per my trade</t>
+  </si>
+  <si>
+    <t>16/7/2025</t>
+  </si>
+  <si>
+    <t>I traded as per my setup and trade gave 1:2.5 RR as well but I waited longer this is good approach to control emotion</t>
+  </si>
+  <si>
+    <t>17/7/2025</t>
+  </si>
+  <si>
+    <t>Traded as per my perfect setup and given 1:2 RR as well but I still hold it so booked loss</t>
+  </si>
+  <si>
+    <t>18/7/2025</t>
+  </si>
+  <si>
+    <t>11-18/07/2025</t>
+  </si>
+  <si>
+    <t>market moved on Friday 18 july but I didn't book any profit as it took my sl and moved 200+ point</t>
+  </si>
+  <si>
+    <t>Trades</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>20/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traded on </t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>perfect trade but I didn't hold longer</t>
+  </si>
+  <si>
+    <t>always trade less but look for directional trade</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>This time I aimed for big move but booked loss</t>
+  </si>
+  <si>
+    <t>just given a trial btc coin</t>
+  </si>
+  <si>
+    <t>21/7/2025</t>
+  </si>
+  <si>
+    <t>I marked something for trade I traded something else so booked loss so no more trade in indian market for next sometime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never ever think that market won't give second change never ever </t>
+  </si>
+  <si>
+    <t>I will learn and make money 100% sure</t>
+  </si>
+  <si>
+    <t>control FOMO in life and in trading</t>
+  </si>
+  <si>
+    <t>22/7/2025</t>
+  </si>
+  <si>
+    <t>why because of no proper trading strategy</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>I sorted market at top but it hit my SL as I gave small SL</t>
+  </si>
+  <si>
+    <t>23/7/2025</t>
+  </si>
+  <si>
+    <t>based on liquidity concept I traded today and as per my entry it gave me proper RR and I will test this strategry for 30 monre trading sessions</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
+  </si>
+  <si>
+    <t>As per my pre-market opening session I saw clearn down and market up later</t>
+  </si>
+  <si>
+    <t>My trading analysis worked but I still need to figure out the extact reversal points</t>
+  </si>
+  <si>
+    <t>As per this pattern observation I am tradin on 10 trades and observing win ratio</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>entrytime</t>
+  </si>
+  <si>
+    <t>exit time</t>
+  </si>
+  <si>
+    <t>emotions while in trade</t>
+  </si>
+  <si>
+    <t>As per inverse candle and this is demo trade which it would have taken 24 points Sl and given 70 points in return</t>
+  </si>
+  <si>
+    <t>I sorted based on 5min candle and both trade gave 1:2 RR</t>
+  </si>
+  <si>
+    <t>out of five trade I made profit in all trade including indian and crypto</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>As per inverse candle and this is demo trade which it would have taken 24 points Sl and given 100 points in return</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>I sorted based on 15min time but booked loss because I sorted on support line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first trade was not as per my setup </t>
+  </si>
+  <si>
+    <t>Three SL hit so I need to check my entry point carefully</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo trade is going good </t>
+  </si>
+  <si>
+    <t>Learn from here how to make sniper entry not based on emotion</t>
+  </si>
+  <si>
+    <t>don’t trade based on emotion bro why you want to do</t>
+  </si>
+  <si>
+    <t>one month practice</t>
+  </si>
+  <si>
+    <t>First trade was ok but I should have waited for support SL hit candle second trade is emotional trade</t>
+  </si>
+  <si>
+    <t>I am a fuck person never ever trade blindly in life</t>
+  </si>
+  <si>
+    <t>As per inverse candle and this is demo trade which it would have taken 24 points Sl and given 200 points in return//because of monthly expiry</t>
+  </si>
+  <si>
+    <t>in Demo everything is perfect so keep recording this pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade gave 1:2 RR around 100 point but later hit my T SL so I am good as I didn't miss any </t>
+  </si>
+  <si>
+    <t>market was in down trend so I made entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2/8/2025    3456.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3450      03/08/2025</t>
+  </si>
+  <si>
+    <t>no poper setup and so booked loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I saw one setup in 5min but this time it didn't work </t>
+  </si>
+  <si>
+    <t>I am obaserving and it gave good point but in the beginning I book loss later my setup candle appeared</t>
+  </si>
+  <si>
+    <t>I entered in FOMO so I manuallly exited trade I didn't follow rule so no profit if goes 1000 points too</t>
+  </si>
+  <si>
+    <t>I saw one perfect setup but it didn't work will obsever more</t>
+  </si>
+  <si>
+    <t>one candle that is inverted one and I made entry and it worked well</t>
+  </si>
+  <si>
+    <t>one month demo trading seriously</t>
+  </si>
+  <si>
+    <t>Entry time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit </t>
+  </si>
+  <si>
+    <t>One month backtesting trades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was looking for a trade in break down so it gone wrong </t>
+  </si>
+  <si>
+    <t>I did look this time at breakout and it went successful</t>
+  </si>
+  <si>
+    <t>points captured</t>
+  </si>
+  <si>
+    <t>50 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did look at break down but waited for one retest </t>
+  </si>
+  <si>
+    <t>I did took trade on break down but gave 1:1 and reverse</t>
+  </si>
+  <si>
+    <t>7points SL</t>
+  </si>
+  <si>
+    <t>30pints GT</t>
+  </si>
+  <si>
+    <t>I look trade for upside trade gave 1:1 and hit my SL</t>
+  </si>
+  <si>
+    <t>14 points</t>
+  </si>
+  <si>
+    <t>I took trade at liquidity candle and booked 1:1.9 RR</t>
+  </si>
+  <si>
+    <t>38 points</t>
+  </si>
+  <si>
+    <t>I took trade at break out but it didn't work</t>
+  </si>
+  <si>
+    <t>400 points</t>
+  </si>
+  <si>
+    <t>40 points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I traded on one inverse candle and it quickly gave 1:2 RR </t>
+  </si>
+  <si>
+    <t>I did took trade base on 15min terndline and it did gave 30 ponts</t>
+  </si>
+  <si>
+    <t>30 points</t>
+  </si>
+  <si>
+    <t>I saw one liquidity candle and traded but it took my sl</t>
+  </si>
+  <si>
+    <t>18points</t>
+  </si>
+  <si>
+    <t>don't trade immediately know your positin and trade</t>
+  </si>
+  <si>
+    <t>I saw one liquidity canddle and trade after it break down</t>
+  </si>
+  <si>
+    <t>22 points</t>
+  </si>
+  <si>
+    <t>it was qyuck scalp but I have to learn to wait in trading whatever</t>
+  </si>
+  <si>
+    <t>it was trade at breakout but as I said don't trade a immediate breakout</t>
+  </si>
+  <si>
+    <t>15 points</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>I trade base on one retest and I was assured that this trade will work so it did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1700 points </t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>I missed this trade as I went to play ball</t>
+  </si>
+  <si>
+    <t>200 points</t>
+  </si>
+  <si>
+    <t>I waited for the trade and it was successful as per my plan</t>
+  </si>
+  <si>
+    <t>60 points</t>
+  </si>
+  <si>
+    <t>be little bit patience when you know your trade will work hold it longer</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I traded on breakdown but I have to learn to be patience in trading </t>
+  </si>
+  <si>
+    <t>Let it hit your SL but once entered in trade wait and only wait</t>
+  </si>
+  <si>
+    <t>17/08/2025</t>
+  </si>
+  <si>
+    <t>I missed my perfect entry and later made entry in 1 min so never ever in hurry</t>
+  </si>
+  <si>
+    <t>17 points</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>I was not supposed to make entry but I did so made mistake</t>
+  </si>
+  <si>
+    <t>I traded on one retest so in 5min time frame</t>
+  </si>
+  <si>
+    <t>16points</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>I traded in 5min time frame on the basis of sideways in rectangle box</t>
+  </si>
+  <si>
+    <t>50points</t>
+  </si>
+  <si>
+    <t>Trade only when ther is some Sl hunting and volitility</t>
+  </si>
+  <si>
+    <t>16 point SL</t>
+  </si>
+  <si>
+    <t>100 points target</t>
+  </si>
+  <si>
+    <t>don’t trade if no volitility</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>I traded in 5 min time frame and trade gave 1:1 but reverser later</t>
+  </si>
+  <si>
+    <t>18 points SL</t>
+  </si>
+  <si>
+    <t>Never ever be in hurry let it make some pin point candle in 15 min and make entry</t>
+  </si>
+  <si>
+    <t>33o points SL</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>I tried to make entry after one retest in 15min but failed</t>
+  </si>
+  <si>
+    <t>16pont SL</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>I traded as demo and it worked perfectly as market is sideways now</t>
+  </si>
+  <si>
+    <t>This is pure emotional trade I am a fuck person</t>
+  </si>
+  <si>
+    <t>37 point SL</t>
+  </si>
+  <si>
+    <t>23/08/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>Till September 25 no trade only back testing</t>
+  </si>
+  <si>
+    <t>I have 3500INR and I will make 1lakh this money watch and wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is 5min trendline trade and it went good as per trade </t>
+  </si>
+  <si>
+    <t>60 ppoints</t>
+  </si>
+  <si>
+    <t>64 point</t>
+  </si>
+  <si>
+    <t>I traded in 5 min time frame and this time sl hit</t>
+  </si>
+  <si>
+    <t>34 point SL</t>
+  </si>
+  <si>
+    <t>63point target</t>
+  </si>
+  <si>
+    <t>Trade only after 19:pm IST</t>
+  </si>
+  <si>
+    <t>Demo trade but perfect rade so just observer your capital gain and process</t>
+  </si>
+  <si>
+    <t>150points target</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>12 point SL</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>11 point SL</t>
+  </si>
+  <si>
+    <t>I followed my rule but I have to wait for market trend to be either negavitve or positive</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>22point sl</t>
+  </si>
+  <si>
+    <t>0sl</t>
+  </si>
+  <si>
+    <t>captured a good trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either wait to come near to support level or don't make entry at top and give small SL </t>
+  </si>
+  <si>
+    <t>11point sl</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>230 point target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have to wait for my level no matters what my SL hit because of lack of patience </t>
+  </si>
+  <si>
+    <t>15pointSL</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>10point SL</t>
+  </si>
+  <si>
+    <t>I booked loss because of lack of patience market move around 160 point but I reduced my SL too soon</t>
+  </si>
+  <si>
+    <t>Never ever be in hurry to move SL too Soon</t>
+  </si>
+  <si>
+    <t>New learning again and again</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>26/10/2025</t>
+  </si>
+  <si>
+    <t>15 point SL</t>
+  </si>
+  <si>
+    <t>this was a good trade</t>
+  </si>
+  <si>
+    <t>I have to be patience and wait for a level</t>
   </si>
 </sst>
 </file>
@@ -124,12 +829,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE6289"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,15 +909,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBE6289"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,6 +952,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1857634</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8AFFB6-BED2-619F-4538-1C0341817002}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="1857634" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3210324</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0965C6-D205-994B-E138-E190BA792B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2419569"/>
+          <a:ext cx="8345065" cy="2410161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400616</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD4B928-7311-5451-7DCF-F8AFF4C43FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4058216" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600669</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E6D46A-74FE-8E48-81F8-8FB2757163A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3619500"/>
+          <a:ext cx="4258269" cy="2572109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,22 +1407,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A19" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="76.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="145" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,15 +1440,21 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45722</v>
       </c>
       <c r="B2">
         <v>3200</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -480,28 +1464,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45753</v>
       </c>
       <c r="B3">
         <v>321</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45783</v>
       </c>
       <c r="B4">
         <v>446</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -511,32 +1495,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45814</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1225</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45844</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>21</v>
       </c>
@@ -544,14 +1529,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45906</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" t="s">
@@ -561,20 +1546,608 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45967</v>
       </c>
       <c r="B9">
         <v>466</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B10">
+        <v>554</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>1333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1050</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>544</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>507</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>467</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45695</v>
+      </c>
+      <c r="C22" s="6">
+        <v>474</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B23">
+        <v>369</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B25">
+        <v>240</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>620</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B27">
+        <v>310</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45937</v>
+      </c>
+      <c r="B28">
+        <v>580</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>350</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>250</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>460</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33">
+        <v>283</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>600</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>432</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1400</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B42">
+        <v>2000</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45846</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45969</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
     </row>
@@ -584,155 +2157,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9695DB-B1BF-4BA6-8E2D-536B9EB0F6AA}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9ADAA-36D5-4BED-9C6F-C6D51D7A5B82}">
+  <dimension ref="A11:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="77" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF26B6-0FC4-4E07-AAD1-61B93B676AB0}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9695DB-B1BF-4BA6-8E2D-536B9EB0F6AA}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45753</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45783</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45814</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45844</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45936</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45967</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -741,53 +2310,1740 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA334FA-74AA-4A81-A704-37DDCF8B8F3D}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF26B6-0FC4-4E07-AAD1-61B93B676AB0}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45783</v>
       </c>
-      <c r="B2">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45844</v>
       </c>
-      <c r="B3">
-        <v>25103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45936</v>
       </c>
-      <c r="B4">
-        <v>25104</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA334FA-74AA-4A81-A704-37DDCF8B8F3D}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B2">
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45844</v>
+      </c>
+      <c r="B3">
+        <v>25103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B4">
+        <v>25104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>25550</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45664</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45695</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45845</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9609FA0-C9CE-4B4B-9DCE-438EF1F1B0E6}">
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="99.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="6">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4">
+        <v>512</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8">
+        <v>750</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>45665</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B12" s="6">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45755</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45755</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>45846</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>45846</v>
+      </c>
+      <c r="B20" s="6">
+        <v>500</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>45877</v>
+      </c>
+      <c r="B21" s="6">
+        <v>800</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>45877</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8">
+        <v>300</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>45877</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="16">
+        <v>500</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>45908</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="16">
+        <v>400</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B25" s="6">
+        <v>600</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>45938</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="16">
+        <v>200</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B28" s="6">
+        <v>700</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.53125</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>45969</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3">
+        <v>430</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>45969</v>
+      </c>
+      <c r="B30" s="6">
+        <v>380</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>45969</v>
+      </c>
+      <c r="B31" s="6">
+        <v>686</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>45969</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="16">
+        <v>430</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1509</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="6">
+        <v>600</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="6">
+        <v>319</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="3">
+        <v>220</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="3">
+        <v>220</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="16">
+        <v>220</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="6">
+        <v>400</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="3">
+        <v>320</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="3">
+        <v>220</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="3">
+        <v>436</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="3">
+        <v>220</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="6">
+        <v>900</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="17">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="3">
+        <v>420</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="3">
+        <v>300</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="3">
+        <v>190</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="3">
+        <v>160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="6">
+        <v>500</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0.65625</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="6">
+        <v>570</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H57" s="19">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>45666</v>
+      </c>
+      <c r="B58" s="6">
+        <v>600</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="H58" s="21">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <v>135</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>45786</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1400</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="3">
+        <v>165</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="J61" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="3">
+        <v>150</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="3">
+        <v>35</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="J63" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="3">
+        <v>262</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="J64" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="6">
+        <v>605</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="21">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="H65" s="21">
+        <v>0.92777777777777781</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C66" s="3">
+        <v>150</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I66" t="s">
+        <v>245</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C67" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45848</v>
+      </c>
+      <c r="C68" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
+        <v>45848</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1174</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>45910</v>
+      </c>
+      <c r="B70" s="6">
+        <v>60</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>45940</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2130</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="J71" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="3">
+        <v>200</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="3">
+        <v>130</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" t="s">
+        <v>255</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" s="6">
+        <v>130</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="3">
+        <v>160</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B09CB9A-DA97-44C8-9206-D89DBEC464D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>